--- a/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>16,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>8,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,86</t>
+          <t>0,0; 25,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,29</t>
+          <t>0,0; 26,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,25</t>
+          <t>0,0; 72,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,26</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,3</t>
+          <t>0,0; 13,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,37</t>
+          <t>0,0; 41,47</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>125,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-50,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 235,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,82; 352,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1196,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,41; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,28; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 162,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 275,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 622,81</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,64</t>
+          <t>-3,21; 0,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,93</t>
+          <t>-2,25; 2,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 22,37</t>
+          <t>-1,52; 8,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,97</t>
+          <t>-0,96; 2,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,3</t>
+          <t>-0,6; 3,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 18,69</t>
+          <t>-2,17; 1,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,58</t>
+          <t>-1,61; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,03</t>
+          <t>-0,72; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 15,4</t>
+          <t>-1,02; 5,37</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>-49,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>129,85%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>870,71%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>73,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,85%</t>
+          <t>125,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>208,81%</t>
+          <t>-50,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>398,76%</t>
+          <t>65,38%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 935,92</t>
+          <t>-100,0; 235,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 1040,35</t>
+          <t>-75,82; 352,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,16; 5674,39</t>
+          <t>-100,0; 1196,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,25; 119,32</t>
+          <t>-68,41; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-87,78; 133,49</t>
+          <t>-46,28; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 1093,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 136,25</t>
+          <t>-71,41; 162,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,4; 173,31</t>
+          <t>-38,26; 275,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,28; 1090,59</t>
+          <t>-71,81; 622,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>3,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,27</t>
+          <t>-2,5; 2,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,18</t>
+          <t>-3,25; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,28</t>
+          <t>-2,4; 11,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 0,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 2,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 18,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,9</t>
+          <t>-2,68; 0,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>-2,36; 1,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,47</t>
+          <t>-0,5; 11,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-54,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,93%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>162,33%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,47; 463,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1459,34 +1459,34 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,55; 227,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 2476,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,57; 66,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,6; 123,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,86; 1173,16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>8,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,07</t>
+          <t>-1,01; 3,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,93</t>
+          <t>-0,73; 3,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 11,76</t>
+          <t>2,86; 22,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,01</t>
+          <t>-4,13; 0,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,44</t>
+          <t>-3,92; 1,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 18,86</t>
+          <t>-0,37; 18,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,58</t>
+          <t>-1,96; 1,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,24</t>
+          <t>-1,61; 2,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 11,17</t>
+          <t>3,08; 15,4</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-54,67%</t>
+          <t>129,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>870,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-80,23%</t>
+          <t>-47,52%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-40,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>246,75%</t>
+          <t>208,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-46,99%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-25,93%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>162,33%</t>
+          <t>398,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-84,47; 463,06</t>
+          <t>-66,1; 935,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,24; 1040,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,16; 5674,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,25; 119,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-83,55; 227,09</t>
+          <t>-87,78; 133,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2476,24</t>
+          <t>-39,42; 1093,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-87,57; 66,46</t>
+          <t>-65,82; 136,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-80,6; 123,26</t>
+          <t>-59,4; 173,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 1173,16</t>
+          <t>95,28; 1090,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,27</t>
+          <t>0,0; 28,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,18</t>
+          <t>0,0; 26,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,9</t>
+          <t>0,0; 14,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>0,0; 14,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,07</t>
+          <t>-1,48; 5,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -0,56</t>
+          <t>-5,02; -0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 12,92</t>
+          <t>-2,79; 14,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,97</t>
+          <t>-1,27; 1,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,07</t>
+          <t>-0,62; 5,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 44,25</t>
+          <t>-0,63; 37,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,15</t>
+          <t>-0,99; 3,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,35</t>
+          <t>-2,11; 1,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 18,61</t>
+          <t>-1,06; 17,55</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,15; inf</t>
+          <t>-65,12; 864,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 715,25</t>
+          <t>-62,09; 652,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 458,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,86</t>
+          <t>-3,16; 0,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,29</t>
+          <t>-1,94; 2,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,25</t>
+          <t>-1,49; 9,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,99</t>
+          <t>-0,87; 2,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,4</t>
+          <t>-0,52; 3,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,15</t>
+          <t>-2,2; 1,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,26</t>
+          <t>-1,58; 1,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,3</t>
+          <t>-0,83; 2,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,37</t>
+          <t>-1,23; 5,09</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 235,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,82; 352,83</t>
+          <t>-75,93; 363,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1196,22</t>
+          <t>-100,0; 1559,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,41; —</t>
+          <t>-72,51; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,28; —</t>
+          <t>-44,85; 1175,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 162,48</t>
+          <t>-68,08; 154,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 275,38</t>
+          <t>-39,98; 309,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,81; 622,81</t>
+          <t>-71,03; 656,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,07</t>
+          <t>-2,96; 2,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,93</t>
+          <t>-3,33; 0,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 11,76</t>
+          <t>-2,4; 12,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,01</t>
+          <t>-4,66; 0,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,44</t>
+          <t>-2,75; 2,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 18,86</t>
+          <t>-1,51; 19,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,58</t>
+          <t>-3,05; 0,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,24</t>
+          <t>-2,3; 1,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 11,17</t>
+          <t>-0,41; 11,53</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-84,47; 463,06</t>
+          <t>-100,0; 346,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,55; 227,09</t>
+          <t>-75,43; 379,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2476,24</t>
+          <t>-100,0; 1775,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,57; 66,46</t>
+          <t>-89,2; 59,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-80,6; 123,26</t>
+          <t>-76,27; 132,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 1173,16</t>
+          <t>-37,47; 821,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,64</t>
+          <t>-1,18; 3,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,93</t>
+          <t>-0,51; 4,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 22,37</t>
+          <t>3,21; 24,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,97</t>
+          <t>-3,93; 1,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,3</t>
+          <t>-4,1; 1,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 18,69</t>
+          <t>-0,55; 18,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,58</t>
+          <t>-1,72; 1,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,03</t>
+          <t>-1,66; 1,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,08; 15,4</t>
+          <t>2,46; 15,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 935,92</t>
+          <t>-76,39; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,24; 1040,35</t>
+          <t>-63,11; 1043,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>62,16; 5674,39</t>
+          <t>55,3; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-87,25; 119,32</t>
+          <t>-90,23; 103,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-87,78; 133,49</t>
+          <t>-90,4; 114,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 1093,42</t>
+          <t>-32,68; 943,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 136,25</t>
+          <t>-63,95; 159,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-59,4; 173,31</t>
+          <t>-57,32; 160,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>95,28; 1090,59</t>
+          <t>73,13; 1159,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,88</t>
+          <t>-0,61; 1,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,41</t>
+          <t>-0,92; 1,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,78</t>
+          <t>1,39; 8,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,38</t>
+          <t>-1,87; 0,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,51</t>
+          <t>-1,13; 1,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,58; 8,96</t>
+          <t>0,78; 9,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,92</t>
+          <t>-0,85; 0,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,12</t>
+          <t>-0,69; 1,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,84</t>
+          <t>1,78; 6,93</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 183,47</t>
+          <t>-31,95; 198,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 136,31</t>
+          <t>-44,69; 153,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47,38; 649,64</t>
+          <t>47,73; 737,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 41,87</t>
+          <t>-70,66; 41,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 128,84</t>
+          <t>-44,55; 122,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,14; 621,33</t>
+          <t>29,04; 702,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 73,0</t>
+          <t>-39,73; 66,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 90,92</t>
+          <t>-32,88; 82,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>88,21; 510,37</t>
+          <t>86,96; 473,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,48</t>
+          <t>0,0; 27,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,12</t>
+          <t>0,0; 21,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,28</t>
+          <t>0,0; 58,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,12</t>
+          <t>0,0; 15,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,07</t>
+          <t>0,0; 11,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,47</t>
+          <t>0,0; 39,88</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,57</t>
+          <t>-1,37; 5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -0,56</t>
+          <t>-5,24; -0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 14,65</t>
+          <t>-2,99; 14,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,99</t>
+          <t>-1,27; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,34</t>
+          <t>-0,59; 5,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 37,65</t>
+          <t>-1,25; 36,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,11</t>
+          <t>-1,01; 3,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,32</t>
+          <t>-2,08; 1,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 17,55</t>
+          <t>-0,88; 20,19</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,12; 864,06</t>
+          <t>-71,08; inf</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,09; 652,39</t>
+          <t>-63,73; 723,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,82</t>
+          <t>-3,15; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,61</t>
+          <t>-2,01; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,84</t>
+          <t>-1,49; 8,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,94</t>
+          <t>-1,11; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,66</t>
+          <t>-0,73; 3,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,14</t>
+          <t>-2,19; 1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,23</t>
+          <t>-1,47; 1,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,41</t>
+          <t>-0,86; 2,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,09</t>
+          <t>-1,11; 5,02</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 235,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,93; 363,75</t>
+          <t>-74,5; 359,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1559,75</t>
+          <t>-85,17; 965,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,51; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 1175,33</t>
+          <t>-58,68; 1046,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 154,76</t>
+          <t>-68,21; 169,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 309,09</t>
+          <t>-42,71; 261,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 656,38</t>
+          <t>-74,39; 575,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,01</t>
+          <t>-2,61; 2,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,82</t>
+          <t>-3,21; 0,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 12,21</t>
+          <t>-2,36; 12,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,04</t>
+          <t>-4,82; -0,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,66</t>
+          <t>-2,85; 3,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 19,81</t>
+          <t>-0,36; 19,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,39</t>
+          <t>-2,61; 0,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,19</t>
+          <t>-2,34; 1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 11,53</t>
+          <t>-0,67; 10,59</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 346,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,43; 379,99</t>
+          <t>-79,42; 421,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1775,56</t>
+          <t>-100,0; 1590,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-89,2; 59,7</t>
+          <t>-87,64; 65,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,27; 132,79</t>
+          <t>-77,79; 113,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 821,69</t>
+          <t>-45,54; 732,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,8</t>
+          <t>-1,08; 3,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,05</t>
+          <t>-0,53; 4,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,21; 24,59</t>
+          <t>3,18; 25,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,02</t>
+          <t>-4,11; 0,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,27</t>
+          <t>-3,67; 1,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 18,18</t>
+          <t>-0,18; 16,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,55</t>
+          <t>-1,9; 1,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,89</t>
+          <t>-1,52; 1,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,46; 15,83</t>
+          <t>2,76; 16,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,39; —</t>
+          <t>-68,16; 803,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 1043,18</t>
+          <t>-55,61; 915,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>55,3; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,23; 103,89</t>
+          <t>-90,65; 85,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 114,64</t>
+          <t>-89,47; 117,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 943,65</t>
+          <t>-31,45; 851,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 159,3</t>
+          <t>-65,06; 139,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 160,21</t>
+          <t>-56,12; 152,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73,13; 1159,49</t>
+          <t>88,32; 1131,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,93</t>
+          <t>-0,69; 1,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,49</t>
+          <t>-1,13; 1,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,19</t>
+          <t>1,29; 8,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,45</t>
+          <t>-1,73; 0,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,41</t>
+          <t>-1,01; 1,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,28</t>
+          <t>0,66; 8,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,88</t>
+          <t>-0,81; 0,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,07</t>
+          <t>-0,6; 1,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,93</t>
+          <t>1,88; 7,06</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 198,16</t>
+          <t>-35,28; 162,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 153,33</t>
+          <t>-48,43; 125,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47,73; 737,05</t>
+          <t>56,05; 750,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-70,66; 41,58</t>
+          <t>-70,15; 46,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 122,91</t>
+          <t>-43,02; 119,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,04; 702,54</t>
+          <t>26,07; 662,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 66,01</t>
+          <t>-40,27; 74,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 82,55</t>
+          <t>-29,51; 83,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>86,96; 473,39</t>
+          <t>90,66; 503,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,39</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>5,34</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,83</t>
+          <t>-1,55; 1,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,71</t>
+          <t>-0,52; 3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,84</t>
+          <t>-1,03; 29,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 7,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 2,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 17,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,87</t>
+          <t>-0,22; 4,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,72</t>
+          <t>-1,2; 2,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,88</t>
+          <t>0,12; 16,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>228,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1161,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>152,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>500,28%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-50,76; 1325,49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,8; 1098,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,15; 647,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 4059,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>1,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,92</t>
+          <t>-0,96; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -0,56</t>
+          <t>-0,6; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 14,27</t>
+          <t>-2,17; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,98</t>
+          <t>-3,21; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,13</t>
+          <t>-2,25; 2,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 36,24</t>
+          <t>-1,5; 8,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,32</t>
+          <t>-1,61; 1,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,4</t>
+          <t>-0,72; 2,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 20,19</t>
+          <t>-1,02; 5,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>104,39%</t>
+          <t>73,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>125,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>-49,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>-49,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>230,49%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1298,2%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,3%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>346,01%</t>
+          <t>67,1%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,08; inf</t>
+          <t>-68,41; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-46,28; —</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 235,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,82; 352,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1363,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 723,09</t>
+          <t>-71,41; 162,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,26; 275,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,89; 635,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,89</t>
+          <t>-4,79; 0,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,35</t>
+          <t>-3,03; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,72</t>
+          <t>-1,0; 18,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,93</t>
+          <t>-2,5; 2,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,33</t>
+          <t>-3,25; 0,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,13</t>
+          <t>-2,41; 11,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,31</t>
+          <t>-2,68; 0,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,27</t>
+          <t>-2,36; 1,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,02</t>
+          <t>-0,6; 10,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,0%</t>
+          <t>-80,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>234,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>125,27%</t>
+          <t>-54,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-50,95%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-46,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>-25,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>151,58%</t>
         </is>
       </c>
     </row>
@@ -1223,29 +1223,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 235,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,5; 359,03</t>
+          <t>-83,55; 227,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,17; 965,13</t>
+          <t>-100,0; 2344,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-84,47; 463,06</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-58,68; 1046,79</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 169,97</t>
+          <t>-87,57; 66,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 261,57</t>
+          <t>-80,6; 123,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,39; 575,12</t>
+          <t>-40,57; 1089,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>7,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,19</t>
+          <t>-4,13; 0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,83</t>
+          <t>-3,92; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 12,96</t>
+          <t>-0,49; 18,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -0,05</t>
+          <t>-1,01; 3,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 3,24</t>
+          <t>-0,73; 3,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 19,85</t>
+          <t>2,83; 22,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,46</t>
+          <t>-1,96; 1,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,09</t>
+          <t>-1,61; 2,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 10,59</t>
+          <t>3,03; 15,53</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-47,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,67%</t>
+          <t>-40,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>200,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-80,23%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>129,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>246,75%</t>
+          <t>848,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-46,99%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-25,93%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>162,33%</t>
+          <t>388,98%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,25; 119,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,78; 133,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-39,24; 1040,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,1; 935,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 421,94</t>
+          <t>-57,24; 1040,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1590,08</t>
+          <t>61,73; 5491,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 65,58</t>
+          <t>-65,82; 136,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-77,79; 113,62</t>
+          <t>-59,4; 173,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 732,48</t>
+          <t>88,84; 1067,67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,28</t>
+          <t>-1,76; 0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,05</t>
+          <t>-1,06; 1,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,18; 25,14</t>
+          <t>0,5; 8,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,92</t>
+          <t>-0,63; 1,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,32</t>
+          <t>-0,85; 1,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 16,66</t>
+          <t>1,04; 7,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,46</t>
+          <t>-0,81; 0,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,91</t>
+          <t>-0,58; 1,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 16,37</t>
+          <t>1,74; 6,75</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>-32,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>129,85%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>870,71%</t>
+          <t>216,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-40,85%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>208,81%</t>
+          <t>250,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>398,76%</t>
+          <t>232,49%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 803,93</t>
+          <t>-73,9; 41,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 915,43</t>
+          <t>-45,66; 128,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 630,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,65; 85,63</t>
+          <t>-33,93; 183,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-89,47; 117,16</t>
+          <t>-42,09; 136,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 851,59</t>
+          <t>44,58; 635,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 139,91</t>
+          <t>-36,63; 73,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 152,54</t>
+          <t>-27,53; 90,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>88,32; 1131,94</t>
+          <t>85,15; 501,0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,84</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 1,34</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 8,47</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 0,46</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 1,5</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 8,61</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 0,95</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 1,08</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 7,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>40,7%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>13,13%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>256,69%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-32,6%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>221,23%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>13,69%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>237,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-35,28; 162,0</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-48,43; 125,59</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>56,05; 750,22</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-70,15; 46,63</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-43,02; 119,57</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>26,07; 662,55</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-40,27; 74,32</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-29,51; 83,67</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>90,66; 503,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
